--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3571.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3571.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.15485447419768</v>
+        <v>3.868023157119751</v>
       </c>
       <c r="B1">
-        <v>1.705659855062738</v>
+        <v>2.4712073802948</v>
       </c>
       <c r="C1">
-        <v>3.515533214176589</v>
+        <v>1.901860117912292</v>
       </c>
       <c r="D1">
-        <v>4.599368755293146</v>
+        <v>1.832730174064636</v>
       </c>
       <c r="E1">
-        <v>1.177371158270855</v>
+        <v>1.783858418464661</v>
       </c>
     </row>
   </sheetData>
